--- a/PENN DCF.xlsx
+++ b/PENN DCF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Desktop\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D691600-CC88-4E0A-9D2D-B4EDEA13FB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD77DB-0994-425F-A5E4-8F13E0AA0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3F256251-7061-49B2-9B0B-301EC1E08ECF}"/>
   </bookViews>
@@ -252,9 +252,6 @@
     <t>Net cash provided by operating activities</t>
   </si>
   <si>
-    <t>Update: 30/06/2023</t>
-  </si>
-  <si>
     <t>CONSOLIDATED STATEMENTS OF OPERATIONS</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   </si>
   <si>
     <t>PENN Entertainment DCF</t>
+  </si>
+  <si>
+    <t>Update: 13/07/2023</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1321,7 @@
     <row r="2" spans="1:18" s="51" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="2"/>
@@ -4752,7 +4752,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="90"/>
       <c r="C1" s="90"/>
@@ -4760,7 +4760,7 @@
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
       <c r="H1" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I1" s="90"/>
       <c r="J1" s="90"/>
@@ -4787,7 +4787,7 @@
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="93"/>
       <c r="F4" s="93"/>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="91"/>
       <c r="C5" s="91"/>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G5" s="83"/>
       <c r="I5" s="94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="94"/>
       <c r="K5" s="94"/>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -4834,16 +4834,16 @@
       <c r="F6" s="83"/>
       <c r="G6" s="83"/>
       <c r="H6" s="88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="K6" s="83" t="s">
         <v>130</v>
-      </c>
-      <c r="K6" s="83" t="s">
-        <v>131</v>
       </c>
       <c r="L6" s="83"/>
       <c r="M6" s="83"/>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="G7" s="86"/>
       <c r="H7" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="90"/>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="96">
         <v>601.70000000000005</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I10" s="96">
         <v>11.7</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90"/>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G11" s="84"/>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" s="96">
         <v>26.1</v>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="G13" s="84"/>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" s="97">
         <v>-183.5</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="G14" s="84"/>
       <c r="H14" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14" s="96">
         <v>3148</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="G15" s="84"/>
       <c r="H15" s="83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G17" s="84"/>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="96">
         <v>421.8</v>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="G18" s="84"/>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="96">
         <v>514.5</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="19" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I19" s="96">
         <v>26.1</v>
@@ -5175,7 +5175,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="90"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="G21" s="84"/>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="96">
         <v>18</v>
@@ -5239,12 +5239,12 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I22" s="96">
         <v>89.8</v>
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="96">
         <v>2702.3</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="90"/>
       <c r="C24" s="90"/>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="90"/>
       <c r="C25" s="90"/>
@@ -5339,12 +5339,12 @@
       </c>
       <c r="G25" s="84"/>
       <c r="H25" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90"/>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="96">
         <v>18.7</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="G28" s="87"/>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="97">
         <v>-24</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="90"/>
       <c r="C29" s="90"/>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="G30" s="84"/>
       <c r="H30" s="83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="97">
         <v>-470.8</v>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="G31" s="84"/>
       <c r="H31" s="83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="97">
         <v>-25.1</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="G32" s="84"/>
       <c r="H32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I32" s="96">
         <v>498.5</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I34" t="s">
         <v>60</v>
@@ -5614,12 +5614,12 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
       <c r="H35" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I35" s="95">
         <v>473.4</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="90"/>
       <c r="C36" s="90"/>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="G37" s="86"/>
       <c r="H37" s="83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -5676,7 +5676,7 @@
       <c r="B38" s="92"/>
       <c r="C38" s="92"/>
       <c r="H38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I38" s="95">
         <v>5.21</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
@@ -5708,7 +5708,7 @@
       </c>
       <c r="G39" s="84"/>
       <c r="H39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I39" s="95">
         <v>5.07</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="90"/>
       <c r="C40" s="90"/>
@@ -5747,7 +5747,7 @@
       <c r="B41" s="90"/>
       <c r="C41" s="90"/>
       <c r="H41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I41" s="96">
         <v>90.9</v>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="G42" s="84"/>
       <c r="H42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I42" s="96">
         <v>93.4</v>
@@ -5913,7 +5913,7 @@
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="93" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="93"/>
       <c r="F4" s="93"/>
@@ -5938,7 +5938,7 @@
       <c r="G5" s="83"/>
       <c r="H5" s="83"/>
       <c r="J5" s="83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="83"/>
       <c r="L5" s="83"/>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="90"/>
@@ -5966,13 +5966,13 @@
         <v>68</v>
       </c>
       <c r="J6" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="L6" s="83" t="s">
         <v>130</v>
-      </c>
-      <c r="L6" s="83" t="s">
-        <v>131</v>
       </c>
       <c r="M6" s="83"/>
       <c r="N6" s="83"/>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G7" s="86"/>
       <c r="I7" s="83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -6040,12 +6040,12 @@
       </c>
       <c r="G9" s="84"/>
       <c r="I9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="90"/>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="90"/>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="G11" s="84"/>
       <c r="I11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="96">
         <v>7</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="90"/>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="G12" s="84"/>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
         <v>60</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J13" s="97">
         <v>-6.8</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90"/>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="G14" s="83"/>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
         <v>60</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="90"/>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="G15" s="84"/>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J15" s="96">
         <v>0.2</v>
@@ -6218,7 +6218,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="G16" s="84"/>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" s="97">
         <v>-18.7</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="G17" s="87"/>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J17" s="96">
         <v>26.5</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="90"/>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="90"/>
       <c r="C20" s="90"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="G20" s="84"/>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" s="96">
         <v>18</v>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="G21" s="87"/>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J21" s="96">
         <v>89.8</v>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="G22" s="84"/>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J22" t="s">
         <v>60</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="90"/>
@@ -6454,7 +6454,7 @@
       </c>
       <c r="G23" s="84"/>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" s="96">
         <v>24</v>
@@ -6470,12 +6470,12 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J25" s="97">
         <v>-9.1999999999999993</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="90"/>
       <c r="C26" s="90"/>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="G26" s="84"/>
       <c r="I26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J26" s="97">
         <v>-7.3</v>
@@ -6524,12 +6524,12 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="90"/>
       <c r="C27" s="90"/>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J27" s="96">
         <v>2.4</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="90"/>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="G28" s="87"/>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J28" s="97">
         <v>-0.4</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="90"/>
       <c r="C29" s="90"/>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="G29" s="87"/>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J29" s="96">
         <v>55.2</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" s="90"/>
       <c r="C30" s="90"/>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="G31" s="87"/>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" t="s">
         <v>60</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" s="90"/>
       <c r="C32" s="90"/>
@@ -6687,7 +6687,7 @@
       </c>
       <c r="G32" s="84"/>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J32" s="96">
         <v>46.3</v>
@@ -6736,7 +6736,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -6751,12 +6751,12 @@
       </c>
       <c r="G34" s="87"/>
       <c r="I34" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="90"/>
       <c r="C35" s="90"/>
@@ -6771,7 +6771,7 @@
       </c>
       <c r="G35" s="87"/>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J35" s="97">
         <v>-25.1</v>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="G36" s="84"/>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="97">
         <v>-74.2</v>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="G37" s="84"/>
       <c r="I37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J37" s="97">
         <v>-127.7</v>
@@ -6852,12 +6852,12 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="90"/>
       <c r="C38" s="90"/>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J38" t="s">
         <v>60</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="90"/>
       <c r="C39" s="90"/>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="G39" s="87"/>
       <c r="I39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J39" t="s">
         <v>60</v>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="90"/>
       <c r="C40" s="90"/>
@@ -6917,7 +6917,7 @@
       </c>
       <c r="G40" s="84"/>
       <c r="I40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J40" s="97">
         <v>-1.6</v>
@@ -6934,7 +6934,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="90"/>
       <c r="C41" s="90"/>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="G41" s="84"/>
       <c r="I41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J41" t="s">
         <v>60</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="90"/>
       <c r="C42" s="90"/>
@@ -6979,7 +6979,7 @@
       </c>
       <c r="G42" s="83"/>
       <c r="I42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J42" s="97">
         <v>-0.5</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="90"/>
       <c r="C43" s="90"/>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="G43" s="83"/>
       <c r="I43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J43" t="s">
         <v>60</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="90"/>
       <c r="C44" s="90"/>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="G44" s="83"/>
       <c r="I44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J44" s="96">
         <v>8.1999999999999993</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B47" s="90"/>
       <c r="C47" s="90"/>
@@ -7109,7 +7109,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="90"/>
       <c r="C48" s="90"/>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B49" s="90"/>
       <c r="C49" s="90"/>
